--- a/Desarrollo/Edutec/Gestión/Sprint 3/Sprint Backlog - S3.xlsx
+++ b/Desarrollo/Edutec/Gestión/Sprint 3/Sprint Backlog - S3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Universidad\Edutec\Desarrollo\Edutec\Gestión\Sprint 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21A39E7-7494-4DCD-8385-03D8BF5DD5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DC8832-7CAB-447F-89EB-544AD16339E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="138">
   <si>
     <t>Universidad Nacional Mayor de San Marcos</t>
   </si>
@@ -419,6 +419,39 @@
   <si>
     <t>Detalle de institución</t>
   </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>Tarea 4 (T02-T4)</t>
+  </si>
+  <si>
+    <t>Iniciado</t>
+  </si>
+  <si>
+    <t>Tarea 5 (T02-T5)</t>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angel Romaní </t>
+  </si>
+  <si>
+    <t>Tarea pendiente del Sprint 2</t>
+  </si>
+  <si>
+    <t>Favoritos</t>
+  </si>
+  <si>
+    <t>Recuperar contraseña</t>
+  </si>
+  <si>
+    <t>HU pendiente del Sprint 2</t>
+  </si>
+  <si>
+    <t>HU pendiente del Sprint 3</t>
+  </si>
 </sst>
 </file>
 
@@ -484,7 +517,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,6 +581,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
@@ -812,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1044,6 +1083,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1076,7 +1118,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1295,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1031"/>
+  <dimension ref="A1:Z1037"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1631,17 +1685,17 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="93"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="94"/>
       <c r="J11" s="3"/>
       <c r="K11" s="12"/>
       <c r="L11" s="3"/>
@@ -1661,34 +1715,36 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="67" t="s">
+      <c r="A12" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="69">
+      <c r="C12" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="105">
         <v>44559</v>
       </c>
-      <c r="G12" s="69">
-        <v>44561</v>
-      </c>
-      <c r="H12" s="67">
-        <v>8</v>
-      </c>
-      <c r="I12" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="3"/>
+      <c r="G12" s="105">
+        <v>44560</v>
+      </c>
+      <c r="H12" s="103">
+        <v>1</v>
+      </c>
+      <c r="I12" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1707,34 +1763,36 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="67" t="s">
+      <c r="A13" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="69">
+      <c r="C13" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="105">
         <v>44559</v>
       </c>
-      <c r="G13" s="69">
-        <v>44561</v>
-      </c>
-      <c r="H13" s="67">
-        <v>8</v>
-      </c>
-      <c r="I13" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="3"/>
+      <c r="G13" s="105">
+        <v>44560</v>
+      </c>
+      <c r="H13" s="103">
+        <v>1</v>
+      </c>
+      <c r="I13" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1753,34 +1811,36 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="67" t="s">
+      <c r="A14" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="69">
-        <v>44561</v>
-      </c>
-      <c r="G14" s="69">
-        <v>44533</v>
-      </c>
-      <c r="H14" s="67">
-        <v>4</v>
-      </c>
-      <c r="I14" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="3"/>
+      <c r="C14" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="105">
+        <v>44559</v>
+      </c>
+      <c r="G14" s="105">
+        <v>44560</v>
+      </c>
+      <c r="H14" s="103">
+        <v>1</v>
+      </c>
+      <c r="I14" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1799,34 +1859,36 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="67" t="s">
+      <c r="A15" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="69">
-        <v>44564</v>
-      </c>
-      <c r="G15" s="69">
-        <v>44565</v>
-      </c>
-      <c r="H15" s="67">
-        <v>4</v>
-      </c>
-      <c r="I15" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="3"/>
+      <c r="C15" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="105">
+        <v>44559</v>
+      </c>
+      <c r="G15" s="105">
+        <v>44560</v>
+      </c>
+      <c r="H15" s="103">
+        <v>1</v>
+      </c>
+      <c r="I15" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1852,22 +1914,22 @@
         <v>20</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16" s="68" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16" s="68" t="s">
         <v>121</v>
       </c>
       <c r="F16" s="69">
-        <v>44565</v>
+        <v>44560</v>
       </c>
       <c r="G16" s="69">
-        <v>44566</v>
-      </c>
-      <c r="H16" s="70">
-        <v>4</v>
+        <v>44561</v>
+      </c>
+      <c r="H16" s="67">
+        <v>8</v>
       </c>
       <c r="I16" s="68" t="s">
         <v>21</v>
@@ -1891,31 +1953,31 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="72" t="s">
+      <c r="A17" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="74">
-        <v>44559</v>
-      </c>
-      <c r="G17" s="74">
+      <c r="C17" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="69">
         <v>44560</v>
       </c>
-      <c r="H17" s="72">
-        <v>4</v>
-      </c>
-      <c r="I17" s="73" t="s">
+      <c r="G17" s="69">
+        <v>44561</v>
+      </c>
+      <c r="H17" s="67">
+        <v>8</v>
+      </c>
+      <c r="I17" s="68" t="s">
         <v>21</v>
       </c>
       <c r="J17" s="3"/>
@@ -1937,31 +1999,31 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="72" t="s">
+      <c r="A18" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="74">
-        <v>44559</v>
-      </c>
-      <c r="G18" s="74">
-        <v>44560</v>
-      </c>
-      <c r="H18" s="72">
-        <v>2</v>
-      </c>
-      <c r="I18" s="73" t="s">
+      <c r="C18" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="69">
+        <v>44561</v>
+      </c>
+      <c r="G18" s="69">
+        <v>44533</v>
+      </c>
+      <c r="H18" s="67">
+        <v>4</v>
+      </c>
+      <c r="I18" s="68" t="s">
         <v>21</v>
       </c>
       <c r="J18" s="3"/>
@@ -1983,31 +2045,31 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="72" t="s">
+      <c r="A19" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="74">
-        <v>44560</v>
-      </c>
-      <c r="G19" s="74">
-        <v>44561</v>
-      </c>
-      <c r="H19" s="72">
-        <v>2</v>
-      </c>
-      <c r="I19" s="73" t="s">
+      <c r="C19" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="69">
+        <v>44564</v>
+      </c>
+      <c r="G19" s="69">
+        <v>44565</v>
+      </c>
+      <c r="H19" s="67">
+        <v>4</v>
+      </c>
+      <c r="I19" s="68" t="s">
         <v>21</v>
       </c>
       <c r="J19" s="3"/>
@@ -2029,31 +2091,31 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="72" t="s">
+      <c r="A20" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="74">
-        <v>44592</v>
-      </c>
-      <c r="G20" s="74">
-        <v>44564</v>
-      </c>
-      <c r="H20" s="72">
+      <c r="C20" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="69">
+        <v>44565</v>
+      </c>
+      <c r="G20" s="69">
+        <v>44566</v>
+      </c>
+      <c r="H20" s="70">
         <v>4</v>
       </c>
-      <c r="I20" s="73" t="s">
+      <c r="I20" s="68" t="s">
         <v>21</v>
       </c>
       <c r="J20" s="3"/>
@@ -2082,22 +2144,22 @@
         <v>20</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D21" s="73" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E21" s="73" t="s">
         <v>122</v>
       </c>
       <c r="F21" s="74">
-        <v>44564</v>
+        <v>44559</v>
       </c>
       <c r="G21" s="74">
-        <v>44565</v>
-      </c>
-      <c r="H21" s="75">
-        <v>2</v>
+        <v>44560</v>
+      </c>
+      <c r="H21" s="72">
+        <v>4</v>
       </c>
       <c r="I21" s="73" t="s">
         <v>21</v>
@@ -2121,31 +2183,31 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="21">
-        <v>44566</v>
-      </c>
-      <c r="G22" s="21">
-        <v>44567</v>
-      </c>
-      <c r="H22" s="22">
-        <v>4</v>
-      </c>
-      <c r="I22" s="23" t="s">
+      <c r="C22" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="74">
+        <v>44559</v>
+      </c>
+      <c r="G22" s="74">
+        <v>44560</v>
+      </c>
+      <c r="H22" s="72">
+        <v>2</v>
+      </c>
+      <c r="I22" s="73" t="s">
         <v>21</v>
       </c>
       <c r="J22" s="3"/>
@@ -2167,31 +2229,31 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="21">
-        <v>44566</v>
-      </c>
-      <c r="G23" s="21">
-        <v>44567</v>
-      </c>
-      <c r="H23" s="22">
-        <v>4</v>
-      </c>
-      <c r="I23" s="23" t="s">
+      <c r="C23" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="74">
+        <v>44560</v>
+      </c>
+      <c r="G23" s="74">
+        <v>44561</v>
+      </c>
+      <c r="H23" s="72">
+        <v>2</v>
+      </c>
+      <c r="I23" s="73" t="s">
         <v>21</v>
       </c>
       <c r="J23" s="3"/>
@@ -2213,31 +2275,31 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="21">
-        <v>44567</v>
-      </c>
-      <c r="G24" s="21">
-        <v>44568</v>
-      </c>
-      <c r="H24" s="22">
-        <v>2</v>
-      </c>
-      <c r="I24" s="23" t="s">
+      <c r="C24" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="74">
+        <v>44592</v>
+      </c>
+      <c r="G24" s="74">
+        <v>44564</v>
+      </c>
+      <c r="H24" s="72">
+        <v>4</v>
+      </c>
+      <c r="I24" s="73" t="s">
         <v>21</v>
       </c>
       <c r="J24" s="3"/>
@@ -2259,31 +2321,31 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="21">
-        <v>44568</v>
-      </c>
-      <c r="G25" s="21">
-        <v>44571</v>
-      </c>
-      <c r="H25" s="22">
-        <v>4</v>
-      </c>
-      <c r="I25" s="23" t="s">
+      <c r="C25" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="74">
+        <v>44564</v>
+      </c>
+      <c r="G25" s="74">
+        <v>44565</v>
+      </c>
+      <c r="H25" s="75">
+        <v>2</v>
+      </c>
+      <c r="I25" s="73" t="s">
         <v>21</v>
       </c>
       <c r="J25" s="3"/>
@@ -2312,19 +2374,19 @@
         <v>20</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="F26" s="21">
-        <v>44571</v>
+        <v>44566</v>
       </c>
       <c r="G26" s="21">
-        <v>44572</v>
+        <v>44567</v>
       </c>
       <c r="H26" s="22">
         <v>4</v>
@@ -2350,32 +2412,32 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="57" t="s">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="59">
+      <c r="C27" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="21">
         <v>44566</v>
       </c>
-      <c r="G27" s="59">
+      <c r="G27" s="21">
         <v>44567</v>
       </c>
-      <c r="H27" s="57">
+      <c r="H27" s="22">
         <v>4</v>
       </c>
-      <c r="I27" s="58" t="s">
+      <c r="I27" s="23" t="s">
         <v>21</v>
       </c>
       <c r="J27" s="3"/>
@@ -2397,31 +2459,31 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="57" t="s">
+      <c r="A28" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="59">
-        <v>44566</v>
-      </c>
-      <c r="G28" s="59">
+      <c r="C28" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="21">
         <v>44567</v>
       </c>
-      <c r="H28" s="57">
-        <v>4</v>
-      </c>
-      <c r="I28" s="58" t="s">
+      <c r="G28" s="21">
+        <v>44568</v>
+      </c>
+      <c r="H28" s="22">
+        <v>2</v>
+      </c>
+      <c r="I28" s="23" t="s">
         <v>21</v>
       </c>
       <c r="J28" s="3"/>
@@ -2443,31 +2505,31 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="57" t="s">
+      <c r="A29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="59">
-        <v>44567</v>
-      </c>
-      <c r="G29" s="59">
+      <c r="C29" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="21">
         <v>44568</v>
       </c>
-      <c r="H29" s="57">
-        <v>2</v>
-      </c>
-      <c r="I29" s="58" t="s">
+      <c r="G29" s="21">
+        <v>44571</v>
+      </c>
+      <c r="H29" s="22">
+        <v>4</v>
+      </c>
+      <c r="I29" s="23" t="s">
         <v>21</v>
       </c>
       <c r="J29" s="3"/>
@@ -2489,31 +2551,31 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="57" t="s">
+      <c r="A30" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="59">
-        <v>44568</v>
-      </c>
-      <c r="G30" s="59">
+      <c r="C30" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="21">
         <v>44571</v>
       </c>
-      <c r="H30" s="57">
+      <c r="G30" s="21">
+        <v>44572</v>
+      </c>
+      <c r="H30" s="22">
         <v>4</v>
       </c>
-      <c r="I30" s="58" t="s">
+      <c r="I30" s="23" t="s">
         <v>21</v>
       </c>
       <c r="J30" s="3"/>
@@ -2534,29 +2596,29 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="57" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E31" s="58" t="s">
         <v>122</v>
       </c>
       <c r="F31" s="59">
-        <v>44571</v>
+        <v>44566</v>
       </c>
       <c r="G31" s="59">
-        <v>44572</v>
-      </c>
-      <c r="H31" s="60">
+        <v>44567</v>
+      </c>
+      <c r="H31" s="57">
         <v>4</v>
       </c>
       <c r="I31" s="58" t="s">
@@ -2581,31 +2643,31 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="16">
-        <v>44572</v>
-      </c>
-      <c r="G32" s="16">
-        <v>44573</v>
-      </c>
-      <c r="H32" s="15">
+      <c r="C32" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="59">
+        <v>44566</v>
+      </c>
+      <c r="G32" s="59">
+        <v>44567</v>
+      </c>
+      <c r="H32" s="57">
         <v>4</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="58" t="s">
         <v>21</v>
       </c>
       <c r="J32" s="3"/>
@@ -2627,31 +2689,31 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="16">
-        <v>44572</v>
-      </c>
-      <c r="G33" s="16">
-        <v>44573</v>
-      </c>
-      <c r="H33" s="15">
-        <v>4</v>
-      </c>
-      <c r="I33" s="17" t="s">
+      <c r="C33" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="59">
+        <v>44567</v>
+      </c>
+      <c r="G33" s="59">
+        <v>44568</v>
+      </c>
+      <c r="H33" s="57">
+        <v>2</v>
+      </c>
+      <c r="I33" s="58" t="s">
         <v>21</v>
       </c>
       <c r="J33" s="3"/>
@@ -2673,31 +2735,31 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="15" t="s">
+      <c r="A34" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="16">
-        <v>44573</v>
-      </c>
-      <c r="G34" s="16">
-        <v>44574</v>
-      </c>
-      <c r="H34" s="15">
-        <v>2</v>
-      </c>
-      <c r="I34" s="17" t="s">
+      <c r="C34" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="59">
+        <v>44568</v>
+      </c>
+      <c r="G34" s="59">
+        <v>44571</v>
+      </c>
+      <c r="H34" s="57">
+        <v>4</v>
+      </c>
+      <c r="I34" s="58" t="s">
         <v>21</v>
       </c>
       <c r="J34" s="3"/>
@@ -2719,31 +2781,31 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="16">
-        <v>44573</v>
-      </c>
-      <c r="G35" s="16">
-        <v>44574</v>
-      </c>
-      <c r="H35" s="15">
+      <c r="C35" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="59">
+        <v>44571</v>
+      </c>
+      <c r="G35" s="59">
+        <v>44572</v>
+      </c>
+      <c r="H35" s="60">
         <v>4</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="58" t="s">
         <v>21</v>
       </c>
       <c r="J35" s="3"/>
@@ -2772,21 +2834,21 @@
         <v>20</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>122</v>
       </c>
       <c r="F36" s="16">
-        <v>44574</v>
+        <v>44572</v>
       </c>
       <c r="G36" s="16">
-        <v>44575</v>
-      </c>
-      <c r="H36" s="18">
+        <v>44573</v>
+      </c>
+      <c r="H36" s="15">
         <v>4</v>
       </c>
       <c r="I36" s="17" t="s">
@@ -2811,31 +2873,31 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="62" t="s">
+      <c r="A37" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" s="64">
+      <c r="C37" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="16">
         <v>44572</v>
       </c>
-      <c r="G37" s="64">
+      <c r="G37" s="16">
         <v>44573</v>
       </c>
-      <c r="H37" s="62">
-        <v>2</v>
-      </c>
-      <c r="I37" s="63" t="s">
+      <c r="H37" s="15">
+        <v>4</v>
+      </c>
+      <c r="I37" s="17" t="s">
         <v>21</v>
       </c>
       <c r="J37" s="3"/>
@@ -2857,31 +2919,31 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="62" t="s">
+      <c r="A38" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="64">
-        <v>44572</v>
-      </c>
-      <c r="G38" s="64">
+      <c r="C38" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="16">
         <v>44573</v>
       </c>
-      <c r="H38" s="62">
+      <c r="G38" s="16">
+        <v>44574</v>
+      </c>
+      <c r="H38" s="15">
         <v>2</v>
       </c>
-      <c r="I38" s="63" t="s">
+      <c r="I38" s="17" t="s">
         <v>21</v>
       </c>
       <c r="J38" s="3"/>
@@ -2903,31 +2965,31 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="62" t="s">
+      <c r="A39" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" s="64">
+      <c r="C39" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="16">
         <v>44573</v>
       </c>
-      <c r="G39" s="64">
+      <c r="G39" s="16">
         <v>44574</v>
       </c>
-      <c r="H39" s="62">
-        <v>2</v>
-      </c>
-      <c r="I39" s="63" t="s">
+      <c r="H39" s="15">
+        <v>4</v>
+      </c>
+      <c r="I39" s="17" t="s">
         <v>21</v>
       </c>
       <c r="J39" s="3"/>
@@ -2949,31 +3011,31 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="62" t="s">
+      <c r="A40" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="64">
-        <v>44573</v>
-      </c>
-      <c r="G40" s="64">
+      <c r="C40" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="16">
         <v>44574</v>
       </c>
-      <c r="H40" s="62">
-        <v>2</v>
-      </c>
-      <c r="I40" s="63" t="s">
+      <c r="G40" s="16">
+        <v>44575</v>
+      </c>
+      <c r="H40" s="18">
+        <v>4</v>
+      </c>
+      <c r="I40" s="17" t="s">
         <v>21</v>
       </c>
       <c r="J40" s="3"/>
@@ -3002,21 +3064,21 @@
         <v>20</v>
       </c>
       <c r="C41" s="62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D41" s="63" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E41" s="63" t="s">
         <v>121</v>
       </c>
       <c r="F41" s="64">
-        <v>44574</v>
+        <v>44572</v>
       </c>
       <c r="G41" s="64">
-        <v>44575</v>
-      </c>
-      <c r="H41" s="65">
+        <v>44573</v>
+      </c>
+      <c r="H41" s="62">
         <v>2</v>
       </c>
       <c r="I41" s="63" t="s">
@@ -3041,31 +3103,31 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="67" t="s">
+      <c r="A42" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" s="69">
-        <v>44575</v>
-      </c>
-      <c r="G42" s="69">
-        <v>44576</v>
-      </c>
-      <c r="H42" s="67">
-        <v>4</v>
-      </c>
-      <c r="I42" s="68" t="s">
+      <c r="C42" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="64">
+        <v>44572</v>
+      </c>
+      <c r="G42" s="64">
+        <v>44573</v>
+      </c>
+      <c r="H42" s="62">
+        <v>2</v>
+      </c>
+      <c r="I42" s="63" t="s">
         <v>21</v>
       </c>
       <c r="J42" s="3"/>
@@ -3087,31 +3149,31 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="67" t="s">
+      <c r="A43" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="69">
-        <v>44575</v>
-      </c>
-      <c r="G43" s="69">
-        <v>44576</v>
-      </c>
-      <c r="H43" s="67">
+      <c r="C43" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" s="64">
+        <v>44573</v>
+      </c>
+      <c r="G43" s="64">
+        <v>44574</v>
+      </c>
+      <c r="H43" s="62">
         <v>2</v>
       </c>
-      <c r="I43" s="68" t="s">
+      <c r="I43" s="63" t="s">
         <v>21</v>
       </c>
       <c r="J43" s="3"/>
@@ -3133,31 +3195,31 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="67" t="s">
+      <c r="A44" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="F44" s="69">
-        <v>44576</v>
-      </c>
-      <c r="G44" s="69">
-        <v>44577</v>
-      </c>
-      <c r="H44" s="67">
+      <c r="C44" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="64">
+        <v>44573</v>
+      </c>
+      <c r="G44" s="64">
+        <v>44574</v>
+      </c>
+      <c r="H44" s="62">
         <v>2</v>
       </c>
-      <c r="I44" s="68" t="s">
+      <c r="I44" s="63" t="s">
         <v>21</v>
       </c>
       <c r="J44" s="3"/>
@@ -3179,31 +3241,31 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="67" t="s">
+      <c r="A45" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="69">
-        <v>44577</v>
-      </c>
-      <c r="G45" s="69">
-        <v>44578</v>
-      </c>
-      <c r="H45" s="67">
-        <v>4</v>
-      </c>
-      <c r="I45" s="68" t="s">
+      <c r="C45" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="64">
+        <v>44574</v>
+      </c>
+      <c r="G45" s="64">
+        <v>44575</v>
+      </c>
+      <c r="H45" s="65">
+        <v>2</v>
+      </c>
+      <c r="I45" s="63" t="s">
         <v>21</v>
       </c>
       <c r="J45" s="3"/>
@@ -3232,22 +3294,22 @@
         <v>20</v>
       </c>
       <c r="C46" s="67" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D46" s="68" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E46" s="68" t="s">
         <v>121</v>
       </c>
       <c r="F46" s="69">
-        <v>44578</v>
+        <v>44575</v>
       </c>
       <c r="G46" s="69">
-        <v>44579</v>
-      </c>
-      <c r="H46" s="70">
-        <v>2</v>
+        <v>44576</v>
+      </c>
+      <c r="H46" s="67">
+        <v>4</v>
       </c>
       <c r="I46" s="68" t="s">
         <v>21</v>
@@ -3271,31 +3333,31 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="72" t="s">
+      <c r="A47" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="74">
+      <c r="C47" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="69">
         <v>44575</v>
       </c>
-      <c r="G47" s="74">
+      <c r="G47" s="69">
         <v>44576</v>
       </c>
-      <c r="H47" s="72">
-        <v>4</v>
-      </c>
-      <c r="I47" s="73" t="s">
+      <c r="H47" s="67">
+        <v>2</v>
+      </c>
+      <c r="I47" s="68" t="s">
         <v>21</v>
       </c>
       <c r="J47" s="3"/>
@@ -3317,31 +3379,31 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="72" t="s">
+      <c r="A48" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="74">
-        <v>44575</v>
-      </c>
-      <c r="G48" s="74">
+      <c r="C48" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="69">
         <v>44576</v>
       </c>
-      <c r="H48" s="72">
-        <v>4</v>
-      </c>
-      <c r="I48" s="73" t="s">
+      <c r="G48" s="69">
+        <v>44577</v>
+      </c>
+      <c r="H48" s="67">
+        <v>2</v>
+      </c>
+      <c r="I48" s="68" t="s">
         <v>21</v>
       </c>
       <c r="J48" s="3"/>
@@ -3363,31 +3425,31 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="72" t="s">
+      <c r="A49" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="F49" s="74">
-        <v>44576</v>
-      </c>
-      <c r="G49" s="74">
+      <c r="C49" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="69">
         <v>44577</v>
       </c>
-      <c r="H49" s="72">
-        <v>2</v>
-      </c>
-      <c r="I49" s="73" t="s">
+      <c r="G49" s="69">
+        <v>44578</v>
+      </c>
+      <c r="H49" s="67">
+        <v>4</v>
+      </c>
+      <c r="I49" s="68" t="s">
         <v>21</v>
       </c>
       <c r="J49" s="3"/>
@@ -3409,31 +3471,31 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="72" t="s">
+      <c r="A50" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="74">
-        <v>44577</v>
-      </c>
-      <c r="G50" s="74">
+      <c r="C50" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="69">
         <v>44578</v>
       </c>
-      <c r="H50" s="72">
-        <v>4</v>
-      </c>
-      <c r="I50" s="73" t="s">
+      <c r="G50" s="69">
+        <v>44579</v>
+      </c>
+      <c r="H50" s="70">
+        <v>2</v>
+      </c>
+      <c r="I50" s="68" t="s">
         <v>21</v>
       </c>
       <c r="J50" s="3"/>
@@ -3462,21 +3524,21 @@
         <v>20</v>
       </c>
       <c r="C51" s="72" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D51" s="73" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E51" s="73" t="s">
         <v>122</v>
       </c>
       <c r="F51" s="74">
-        <v>44578</v>
+        <v>44575</v>
       </c>
       <c r="G51" s="74">
-        <v>44579</v>
-      </c>
-      <c r="H51" s="75">
+        <v>44576</v>
+      </c>
+      <c r="H51" s="72">
         <v>4</v>
       </c>
       <c r="I51" s="73" t="s">
@@ -3501,31 +3563,31 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="76" t="s">
+      <c r="A52" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="77" t="s">
+      <c r="B52" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="79">
-        <v>44572</v>
-      </c>
-      <c r="G52" s="79">
-        <v>44573</v>
-      </c>
-      <c r="H52" s="77">
+      <c r="C52" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="74">
+        <v>44575</v>
+      </c>
+      <c r="G52" s="74">
+        <v>44576</v>
+      </c>
+      <c r="H52" s="72">
         <v>4</v>
       </c>
-      <c r="I52" s="78" t="s">
+      <c r="I52" s="73" t="s">
         <v>21</v>
       </c>
       <c r="J52" s="3"/>
@@ -3547,31 +3609,31 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="76" t="s">
+      <c r="A53" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="77" t="s">
+      <c r="B53" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="79">
-        <v>44572</v>
-      </c>
-      <c r="G53" s="79">
-        <v>44573</v>
-      </c>
-      <c r="H53" s="77">
-        <v>4</v>
-      </c>
-      <c r="I53" s="78" t="s">
+      <c r="C53" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="74">
+        <v>44576</v>
+      </c>
+      <c r="G53" s="74">
+        <v>44577</v>
+      </c>
+      <c r="H53" s="72">
+        <v>2</v>
+      </c>
+      <c r="I53" s="73" t="s">
         <v>21</v>
       </c>
       <c r="J53" s="3"/>
@@ -3593,31 +3655,31 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="76" t="s">
+      <c r="A54" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="77" t="s">
+      <c r="B54" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="78" t="s">
+      <c r="C54" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F54" s="79">
-        <v>44573</v>
-      </c>
-      <c r="G54" s="79">
-        <v>44574</v>
-      </c>
-      <c r="H54" s="77">
-        <v>2</v>
-      </c>
-      <c r="I54" s="78" t="s">
+      <c r="F54" s="74">
+        <v>44577</v>
+      </c>
+      <c r="G54" s="74">
+        <v>44578</v>
+      </c>
+      <c r="H54" s="72">
+        <v>4</v>
+      </c>
+      <c r="I54" s="73" t="s">
         <v>21</v>
       </c>
       <c r="J54" s="3"/>
@@ -3639,31 +3701,31 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="76" t="s">
+      <c r="A55" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="77" t="s">
+      <c r="B55" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="79">
-        <v>44573</v>
-      </c>
-      <c r="G55" s="79">
-        <v>44574</v>
-      </c>
-      <c r="H55" s="77">
+      <c r="C55" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="74">
+        <v>44578</v>
+      </c>
+      <c r="G55" s="74">
+        <v>44579</v>
+      </c>
+      <c r="H55" s="75">
         <v>4</v>
       </c>
-      <c r="I55" s="78" t="s">
+      <c r="I55" s="73" t="s">
         <v>21</v>
       </c>
       <c r="J55" s="3"/>
@@ -3692,21 +3754,21 @@
         <v>20</v>
       </c>
       <c r="C56" s="77" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D56" s="78" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E56" s="78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F56" s="79">
-        <v>44574</v>
+        <v>44572</v>
       </c>
       <c r="G56" s="79">
-        <v>44575</v>
-      </c>
-      <c r="H56" s="80">
+        <v>44573</v>
+      </c>
+      <c r="H56" s="77">
         <v>4</v>
       </c>
       <c r="I56" s="78" t="s">
@@ -3731,17 +3793,33 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="A57" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="79">
+        <v>44572</v>
+      </c>
+      <c r="G57" s="79">
+        <v>44573</v>
+      </c>
+      <c r="H57" s="77">
+        <v>4</v>
+      </c>
+      <c r="I57" s="78" t="s">
+        <v>21</v>
+      </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3760,16 +3838,34 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="79">
+        <v>44573</v>
+      </c>
+      <c r="G58" s="79">
+        <v>44574</v>
+      </c>
+      <c r="H58" s="77">
+        <v>2</v>
+      </c>
+      <c r="I58" s="78" t="s">
+        <v>21</v>
+      </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -3788,16 +3884,34 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="79">
+        <v>44573</v>
+      </c>
+      <c r="G59" s="79">
+        <v>44574</v>
+      </c>
+      <c r="H59" s="77">
+        <v>4</v>
+      </c>
+      <c r="I59" s="78" t="s">
+        <v>21</v>
+      </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3816,16 +3930,34 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="79">
+        <v>44574</v>
+      </c>
+      <c r="G60" s="79">
+        <v>44575</v>
+      </c>
+      <c r="H60" s="80">
+        <v>4</v>
+      </c>
+      <c r="I60" s="78" t="s">
+        <v>21</v>
+      </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3844,18 +3976,18 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -3875,16 +4007,10 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="B62" s="85"/>
-      <c r="C62" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" s="51" t="s">
-        <v>35</v>
-      </c>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -3909,17 +4035,11 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" s="90"/>
-      <c r="C63" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="D63" s="27">
-        <v>28</v>
-      </c>
-      <c r="E63" s="101"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -3943,17 +4063,11 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="82"/>
-      <c r="C64" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="D64" s="27">
-        <v>14</v>
-      </c>
-      <c r="E64" s="101"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -3977,17 +4091,13 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="90"/>
-      <c r="C65" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D65" s="27">
-        <v>18</v>
-      </c>
-      <c r="E65" s="101"/>
+      <c r="A65" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -4011,17 +4121,17 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" s="90"/>
-      <c r="C66" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="27">
-        <v>18</v>
-      </c>
-      <c r="E66" s="101"/>
+      <c r="A66" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="86"/>
+      <c r="C66" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -4045,17 +4155,19 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="89" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" s="90"/>
+      <c r="A67" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="97"/>
       <c r="C67" s="55" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="D67" s="27">
-        <v>18</v>
-      </c>
-      <c r="E67" s="101"/>
+        <v>2</v>
+      </c>
+      <c r="E67" s="106" t="s">
+        <v>136</v>
+      </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -4079,17 +4191,19 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="B68" s="90"/>
+      <c r="A68" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="97"/>
       <c r="C68" s="55" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="D68" s="27">
-        <v>10</v>
-      </c>
-      <c r="E68" s="101"/>
+        <v>2</v>
+      </c>
+      <c r="E68" s="106" t="s">
+        <v>137</v>
+      </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -4113,17 +4227,17 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="89" t="s">
-        <v>118</v>
-      </c>
-      <c r="B69" s="90"/>
+      <c r="A69" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="91"/>
       <c r="C69" s="55" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D69" s="27">
-        <v>14</v>
-      </c>
-      <c r="E69" s="101"/>
+        <v>28</v>
+      </c>
+      <c r="E69" s="83"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -4147,17 +4261,17 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="B70" s="90"/>
+      <c r="A70" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="82"/>
       <c r="C70" s="55" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D70" s="27">
-        <v>18</v>
-      </c>
-      <c r="E70" s="101"/>
+        <v>14</v>
+      </c>
+      <c r="E70" s="83"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -4181,17 +4295,17 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="90"/>
+      <c r="A71" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="91"/>
       <c r="C71" s="55" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="D71" s="27">
         <v>18</v>
       </c>
-      <c r="E71" s="101"/>
+      <c r="E71" s="83"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -4215,11 +4329,17 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="A72" s="90" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="91"/>
+      <c r="C72" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="27">
+        <v>18</v>
+      </c>
+      <c r="E72" s="83"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -4243,11 +4363,17 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
+      <c r="A73" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" s="91"/>
+      <c r="C73" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="27">
+        <v>18</v>
+      </c>
+      <c r="E73" s="83"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -4271,17 +4397,17 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B74" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C74" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="D74" s="86"/>
-      <c r="E74" s="3"/>
+      <c r="A74" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" s="91"/>
+      <c r="C74" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" s="27">
+        <v>10</v>
+      </c>
+      <c r="E74" s="83"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -4305,17 +4431,17 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="53">
-        <v>44558</v>
-      </c>
-      <c r="B75" s="54">
-        <v>1</v>
-      </c>
-      <c r="C75" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="D75" s="88"/>
-      <c r="E75" s="3"/>
+      <c r="A75" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" s="91"/>
+      <c r="C75" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="27">
+        <v>14</v>
+      </c>
+      <c r="E75" s="83"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -4339,11 +4465,17 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
+      <c r="A76" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="91"/>
+      <c r="C76" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="27">
+        <v>18</v>
+      </c>
+      <c r="E76" s="83"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -4367,11 +4499,17 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
+      <c r="A77" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="91"/>
+      <c r="C77" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D77" s="27">
+        <v>18</v>
+      </c>
+      <c r="E77" s="83"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -4451,10 +4589,16 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+      <c r="A80" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="87"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -4479,10 +4623,16 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+      <c r="A81" s="53">
+        <v>44558</v>
+      </c>
+      <c r="B81" s="54">
+        <v>1</v>
+      </c>
+      <c r="C81" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="89"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -30826,7 +30976,7 @@
       <c r="Y1021" s="3"/>
       <c r="Z1021" s="3"/>
     </row>
-    <row r="1022" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1022" s="3"/>
       <c r="B1022" s="3"/>
       <c r="C1022" s="3"/>
@@ -30836,8 +30986,25 @@
       <c r="G1022" s="3"/>
       <c r="H1022" s="3"/>
       <c r="I1022" s="3"/>
-    </row>
-    <row r="1023" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1022" s="3"/>
+      <c r="K1022" s="3"/>
+      <c r="L1022" s="3"/>
+      <c r="M1022" s="3"/>
+      <c r="N1022" s="3"/>
+      <c r="O1022" s="3"/>
+      <c r="P1022" s="3"/>
+      <c r="Q1022" s="3"/>
+      <c r="R1022" s="3"/>
+      <c r="S1022" s="3"/>
+      <c r="T1022" s="3"/>
+      <c r="U1022" s="3"/>
+      <c r="V1022" s="3"/>
+      <c r="W1022" s="3"/>
+      <c r="X1022" s="3"/>
+      <c r="Y1022" s="3"/>
+      <c r="Z1022" s="3"/>
+    </row>
+    <row r="1023" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1023" s="3"/>
       <c r="B1023" s="3"/>
       <c r="C1023" s="3"/>
@@ -30847,8 +31014,25 @@
       <c r="G1023" s="3"/>
       <c r="H1023" s="3"/>
       <c r="I1023" s="3"/>
-    </row>
-    <row r="1024" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1023" s="3"/>
+      <c r="K1023" s="3"/>
+      <c r="L1023" s="3"/>
+      <c r="M1023" s="3"/>
+      <c r="N1023" s="3"/>
+      <c r="O1023" s="3"/>
+      <c r="P1023" s="3"/>
+      <c r="Q1023" s="3"/>
+      <c r="R1023" s="3"/>
+      <c r="S1023" s="3"/>
+      <c r="T1023" s="3"/>
+      <c r="U1023" s="3"/>
+      <c r="V1023" s="3"/>
+      <c r="W1023" s="3"/>
+      <c r="X1023" s="3"/>
+      <c r="Y1023" s="3"/>
+      <c r="Z1023" s="3"/>
+    </row>
+    <row r="1024" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1024" s="3"/>
       <c r="B1024" s="3"/>
       <c r="C1024" s="3"/>
@@ -30858,8 +31042,25 @@
       <c r="G1024" s="3"/>
       <c r="H1024" s="3"/>
       <c r="I1024" s="3"/>
-    </row>
-    <row r="1025" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1024" s="3"/>
+      <c r="K1024" s="3"/>
+      <c r="L1024" s="3"/>
+      <c r="M1024" s="3"/>
+      <c r="N1024" s="3"/>
+      <c r="O1024" s="3"/>
+      <c r="P1024" s="3"/>
+      <c r="Q1024" s="3"/>
+      <c r="R1024" s="3"/>
+      <c r="S1024" s="3"/>
+      <c r="T1024" s="3"/>
+      <c r="U1024" s="3"/>
+      <c r="V1024" s="3"/>
+      <c r="W1024" s="3"/>
+      <c r="X1024" s="3"/>
+      <c r="Y1024" s="3"/>
+      <c r="Z1024" s="3"/>
+    </row>
+    <row r="1025" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1025" s="3"/>
       <c r="B1025" s="3"/>
       <c r="C1025" s="3"/>
@@ -30869,8 +31070,25 @@
       <c r="G1025" s="3"/>
       <c r="H1025" s="3"/>
       <c r="I1025" s="3"/>
-    </row>
-    <row r="1026" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1025" s="3"/>
+      <c r="K1025" s="3"/>
+      <c r="L1025" s="3"/>
+      <c r="M1025" s="3"/>
+      <c r="N1025" s="3"/>
+      <c r="O1025" s="3"/>
+      <c r="P1025" s="3"/>
+      <c r="Q1025" s="3"/>
+      <c r="R1025" s="3"/>
+      <c r="S1025" s="3"/>
+      <c r="T1025" s="3"/>
+      <c r="U1025" s="3"/>
+      <c r="V1025" s="3"/>
+      <c r="W1025" s="3"/>
+      <c r="X1025" s="3"/>
+      <c r="Y1025" s="3"/>
+      <c r="Z1025" s="3"/>
+    </row>
+    <row r="1026" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1026" s="3"/>
       <c r="B1026" s="3"/>
       <c r="C1026" s="3"/>
@@ -30880,8 +31098,25 @@
       <c r="G1026" s="3"/>
       <c r="H1026" s="3"/>
       <c r="I1026" s="3"/>
-    </row>
-    <row r="1027" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1026" s="3"/>
+      <c r="K1026" s="3"/>
+      <c r="L1026" s="3"/>
+      <c r="M1026" s="3"/>
+      <c r="N1026" s="3"/>
+      <c r="O1026" s="3"/>
+      <c r="P1026" s="3"/>
+      <c r="Q1026" s="3"/>
+      <c r="R1026" s="3"/>
+      <c r="S1026" s="3"/>
+      <c r="T1026" s="3"/>
+      <c r="U1026" s="3"/>
+      <c r="V1026" s="3"/>
+      <c r="W1026" s="3"/>
+      <c r="X1026" s="3"/>
+      <c r="Y1026" s="3"/>
+      <c r="Z1026" s="3"/>
+    </row>
+    <row r="1027" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1027" s="3"/>
       <c r="B1027" s="3"/>
       <c r="C1027" s="3"/>
@@ -30891,8 +31126,25 @@
       <c r="G1027" s="3"/>
       <c r="H1027" s="3"/>
       <c r="I1027" s="3"/>
-    </row>
-    <row r="1028" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1027" s="3"/>
+      <c r="K1027" s="3"/>
+      <c r="L1027" s="3"/>
+      <c r="M1027" s="3"/>
+      <c r="N1027" s="3"/>
+      <c r="O1027" s="3"/>
+      <c r="P1027" s="3"/>
+      <c r="Q1027" s="3"/>
+      <c r="R1027" s="3"/>
+      <c r="S1027" s="3"/>
+      <c r="T1027" s="3"/>
+      <c r="U1027" s="3"/>
+      <c r="V1027" s="3"/>
+      <c r="W1027" s="3"/>
+      <c r="X1027" s="3"/>
+      <c r="Y1027" s="3"/>
+      <c r="Z1027" s="3"/>
+    </row>
+    <row r="1028" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1028" s="3"/>
       <c r="B1028" s="3"/>
       <c r="C1028" s="3"/>
@@ -30903,7 +31155,7 @@
       <c r="H1028" s="3"/>
       <c r="I1028" s="3"/>
     </row>
-    <row r="1029" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1029" s="3"/>
       <c r="B1029" s="3"/>
       <c r="C1029" s="3"/>
@@ -30914,7 +31166,7 @@
       <c r="H1029" s="3"/>
       <c r="I1029" s="3"/>
     </row>
-    <row r="1030" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1030" s="3"/>
       <c r="B1030" s="3"/>
       <c r="C1030" s="3"/>
@@ -30925,7 +31177,7 @@
       <c r="H1030" s="3"/>
       <c r="I1030" s="3"/>
     </row>
-    <row r="1031" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1031" s="3"/>
       <c r="B1031" s="3"/>
       <c r="C1031" s="3"/>
@@ -30936,21 +31188,89 @@
       <c r="H1031" s="3"/>
       <c r="I1031" s="3"/>
     </row>
+    <row r="1032" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1032" s="3"/>
+      <c r="B1032" s="3"/>
+      <c r="C1032" s="3"/>
+      <c r="D1032" s="3"/>
+      <c r="E1032" s="3"/>
+      <c r="F1032" s="3"/>
+      <c r="G1032" s="3"/>
+      <c r="H1032" s="3"/>
+      <c r="I1032" s="3"/>
+    </row>
+    <row r="1033" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1033" s="3"/>
+      <c r="B1033" s="3"/>
+      <c r="C1033" s="3"/>
+      <c r="D1033" s="3"/>
+      <c r="E1033" s="3"/>
+      <c r="F1033" s="3"/>
+      <c r="G1033" s="3"/>
+      <c r="H1033" s="3"/>
+      <c r="I1033" s="3"/>
+    </row>
+    <row r="1034" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1034" s="3"/>
+      <c r="B1034" s="3"/>
+      <c r="C1034" s="3"/>
+      <c r="D1034" s="3"/>
+      <c r="E1034" s="3"/>
+      <c r="F1034" s="3"/>
+      <c r="G1034" s="3"/>
+      <c r="H1034" s="3"/>
+      <c r="I1034" s="3"/>
+    </row>
+    <row r="1035" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1035" s="3"/>
+      <c r="B1035" s="3"/>
+      <c r="C1035" s="3"/>
+      <c r="D1035" s="3"/>
+      <c r="E1035" s="3"/>
+      <c r="F1035" s="3"/>
+      <c r="G1035" s="3"/>
+      <c r="H1035" s="3"/>
+      <c r="I1035" s="3"/>
+    </row>
+    <row r="1036" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1036" s="3"/>
+      <c r="B1036" s="3"/>
+      <c r="C1036" s="3"/>
+      <c r="D1036" s="3"/>
+      <c r="E1036" s="3"/>
+      <c r="F1036" s="3"/>
+      <c r="G1036" s="3"/>
+      <c r="H1036" s="3"/>
+      <c r="I1036" s="3"/>
+    </row>
+    <row r="1037" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1037" s="3"/>
+      <c r="B1037" s="3"/>
+      <c r="C1037" s="3"/>
+      <c r="D1037" s="3"/>
+      <c r="E1037" s="3"/>
+      <c r="F1037" s="3"/>
+      <c r="G1037" s="3"/>
+      <c r="H1037" s="3"/>
+      <c r="I1037" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
+  <mergeCells count="15">
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A11:I11"/>
     <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
     <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
     <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A65:B65"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -32197,17 +32517,17 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="93"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="94"/>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32402,17 +32722,17 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="93"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="94"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
@@ -32632,17 +32952,17 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="99"/>
-      <c r="C28" s="96"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="97"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="96"/>
+      <c r="B29" s="97"/>
       <c r="C29" s="25" t="s">
         <v>34</v>
       </c>
@@ -32651,10 +32971,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="96"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="49" t="s">
         <v>27</v>
       </c>
@@ -32663,10 +32983,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="95" t="s">
+      <c r="A31" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="96"/>
+      <c r="B31" s="97"/>
       <c r="C31" s="49" t="s">
         <v>38</v>
       </c>
@@ -32675,10 +32995,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="96"/>
+      <c r="B32" s="97"/>
       <c r="C32" s="49" t="s">
         <v>48</v>
       </c>
@@ -32687,10 +33007,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="95" t="s">
+      <c r="A33" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="96"/>
+      <c r="B33" s="97"/>
       <c r="C33" s="49" t="s">
         <v>44</v>
       </c>
@@ -32699,10 +33019,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="95" t="s">
+      <c r="A34" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="96"/>
+      <c r="B34" s="97"/>
       <c r="C34" s="49" t="s">
         <v>46</v>
       </c>
@@ -32711,10 +33031,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="96"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="49" t="s">
         <v>41</v>
       </c>

--- a/Desarrollo/Edutec/Gestión/Sprint 3/Sprint Backlog - S3.xlsx
+++ b/Desarrollo/Edutec/Gestión/Sprint 3/Sprint Backlog - S3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Universidad\Edutec\Desarrollo\Edutec\Gestión\Sprint 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DC8832-7CAB-447F-89EB-544AD16339E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66741E8D-68B0-44AD-BBF8-9B4D8439138B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1086,6 +1086,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1118,21 +1133,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1352,7 +1352,7 @@
   <dimension ref="A1:Z1037"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1685,17 +1685,17 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="94"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="99"/>
       <c r="J11" s="3"/>
       <c r="K11" s="12"/>
       <c r="L11" s="3"/>
@@ -1715,31 +1715,31 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="104" t="s">
+      <c r="E12" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="105">
+      <c r="F12" s="87">
         <v>44559</v>
       </c>
-      <c r="G12" s="105">
+      <c r="G12" s="87">
         <v>44560</v>
       </c>
-      <c r="H12" s="103">
+      <c r="H12" s="85">
         <v>1</v>
       </c>
-      <c r="I12" s="104" t="s">
+      <c r="I12" s="86" t="s">
         <v>129</v>
       </c>
       <c r="J12" s="13" t="s">
@@ -1763,31 +1763,31 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="104" t="s">
+      <c r="E13" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="105">
+      <c r="F13" s="87">
         <v>44559</v>
       </c>
-      <c r="G13" s="105">
+      <c r="G13" s="87">
         <v>44560</v>
       </c>
-      <c r="H13" s="103">
+      <c r="H13" s="85">
         <v>1</v>
       </c>
-      <c r="I13" s="104" t="s">
+      <c r="I13" s="86" t="s">
         <v>129</v>
       </c>
       <c r="J13" s="13" t="s">
@@ -1811,31 +1811,31 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="104" t="s">
+      <c r="E14" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="105">
+      <c r="F14" s="87">
         <v>44559</v>
       </c>
-      <c r="G14" s="105">
+      <c r="G14" s="87">
         <v>44560</v>
       </c>
-      <c r="H14" s="103">
+      <c r="H14" s="85">
         <v>1</v>
       </c>
-      <c r="I14" s="104" t="s">
+      <c r="I14" s="86" t="s">
         <v>129</v>
       </c>
       <c r="J14" s="13" t="s">
@@ -1859,31 +1859,31 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="104" t="s">
+      <c r="E15" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="105">
+      <c r="F15" s="87">
         <v>44559</v>
       </c>
-      <c r="G15" s="105">
+      <c r="G15" s="87">
         <v>44560</v>
       </c>
-      <c r="H15" s="103">
+      <c r="H15" s="85">
         <v>1</v>
       </c>
-      <c r="I15" s="104" t="s">
+      <c r="I15" s="86" t="s">
         <v>129</v>
       </c>
       <c r="J15" s="13" t="s">
@@ -1932,7 +1932,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="68" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1978,7 +1978,7 @@
         <v>8</v>
       </c>
       <c r="I17" s="68" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -2024,7 +2024,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="68" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="I19" s="68" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -2116,7 +2116,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="68" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -2162,7 +2162,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="73" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -2208,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="73" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -2254,7 +2254,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="73" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2300,7 +2300,7 @@
         <v>4</v>
       </c>
       <c r="I24" s="73" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2346,7 +2346,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="73" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -2392,7 +2392,7 @@
         <v>4</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -2438,7 +2438,7 @@
         <v>4</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -2622,7 +2622,7 @@
         <v>4</v>
       </c>
       <c r="I31" s="58" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -2668,7 +2668,7 @@
         <v>4</v>
       </c>
       <c r="I32" s="58" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -4091,12 +4091,12 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="84" t="s">
+      <c r="A65" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="B65" s="85"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="86"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="91"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -4121,10 +4121,10 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="95" t="s">
+      <c r="A66" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="86"/>
+      <c r="B66" s="91"/>
       <c r="C66" s="51" t="s">
         <v>89</v>
       </c>
@@ -4155,17 +4155,17 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="96" t="s">
+      <c r="A67" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="B67" s="97"/>
+      <c r="B67" s="102"/>
       <c r="C67" s="55" t="s">
         <v>127</v>
       </c>
       <c r="D67" s="27">
         <v>2</v>
       </c>
-      <c r="E67" s="106" t="s">
+      <c r="E67" s="88" t="s">
         <v>136</v>
       </c>
       <c r="F67" s="3"/>
@@ -4191,17 +4191,17 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="96" t="s">
+      <c r="A68" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="97"/>
+      <c r="B68" s="102"/>
       <c r="C68" s="55" t="s">
         <v>131</v>
       </c>
       <c r="D68" s="27">
         <v>2</v>
       </c>
-      <c r="E68" s="106" t="s">
+      <c r="E68" s="88" t="s">
         <v>137</v>
       </c>
       <c r="F68" s="3"/>
@@ -4227,10 +4227,10 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="90" t="s">
+      <c r="A69" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="91"/>
+      <c r="B69" s="96"/>
       <c r="C69" s="55" t="s">
         <v>123</v>
       </c>
@@ -4295,10 +4295,10 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="90" t="s">
+      <c r="A71" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="B71" s="91"/>
+      <c r="B71" s="96"/>
       <c r="C71" s="55" t="s">
         <v>38</v>
       </c>
@@ -4329,10 +4329,10 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="90" t="s">
+      <c r="A72" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="B72" s="91"/>
+      <c r="B72" s="96"/>
       <c r="C72" s="55" t="s">
         <v>48</v>
       </c>
@@ -4363,10 +4363,10 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="90" t="s">
+      <c r="A73" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="B73" s="91"/>
+      <c r="B73" s="96"/>
       <c r="C73" s="55" t="s">
         <v>44</v>
       </c>
@@ -4397,10 +4397,10 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="90" t="s">
+      <c r="A74" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="B74" s="91"/>
+      <c r="B74" s="96"/>
       <c r="C74" s="55" t="s">
         <v>46</v>
       </c>
@@ -4431,10 +4431,10 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="90" t="s">
+      <c r="A75" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="B75" s="91"/>
+      <c r="B75" s="96"/>
       <c r="C75" s="55" t="s">
         <v>41</v>
       </c>
@@ -4465,10 +4465,10 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="90" t="s">
+      <c r="A76" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="B76" s="91"/>
+      <c r="B76" s="96"/>
       <c r="C76" s="55" t="s">
         <v>104</v>
       </c>
@@ -4499,10 +4499,10 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="90" t="s">
+      <c r="A77" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="B77" s="91"/>
+      <c r="B77" s="96"/>
       <c r="C77" s="55" t="s">
         <v>105</v>
       </c>
@@ -4595,10 +4595,10 @@
       <c r="B80" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="87" t="s">
+      <c r="C80" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="D80" s="87"/>
+      <c r="D80" s="92"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -4629,10 +4629,10 @@
       <c r="B81" s="54">
         <v>1</v>
       </c>
-      <c r="C81" s="88" t="s">
+      <c r="C81" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="D81" s="89"/>
+      <c r="D81" s="94"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -32517,17 +32517,17 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="94"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="99"/>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32722,17 +32722,17 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="94"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="99"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
@@ -32952,17 +32952,17 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="99" t="s">
+      <c r="A28" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="97"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="102"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="97"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="25" t="s">
         <v>34</v>
       </c>
@@ -32971,10 +32971,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="96" t="s">
+      <c r="A30" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="97"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="49" t="s">
         <v>27</v>
       </c>
@@ -32983,10 +32983,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="96" t="s">
+      <c r="A31" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="97"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="49" t="s">
         <v>38</v>
       </c>
@@ -32995,10 +32995,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="96" t="s">
+      <c r="A32" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="97"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="49" t="s">
         <v>48</v>
       </c>
@@ -33007,10 +33007,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="96" t="s">
+      <c r="A33" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="97"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="49" t="s">
         <v>44</v>
       </c>
@@ -33019,10 +33019,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="96" t="s">
+      <c r="A34" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="97"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="49" t="s">
         <v>46</v>
       </c>
@@ -33031,10 +33031,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="97"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="49" t="s">
         <v>41</v>
       </c>

--- a/Desarrollo/Edutec/Gestión/Sprint 3/Sprint Backlog - S3.xlsx
+++ b/Desarrollo/Edutec/Gestión/Sprint 3/Sprint Backlog - S3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Universidad\Edutec\Desarrollo\Edutec\Gestión\Sprint 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66741E8D-68B0-44AD-BBF8-9B4D8439138B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609A3F81-30E3-4B19-AF34-6A68E2C3A58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="137">
   <si>
     <t>Universidad Nacional Mayor de San Marcos</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>alta</t>
-  </si>
-  <si>
-    <t>No iniciado</t>
   </si>
   <si>
     <t>Maquetar interfaces</t>
@@ -1351,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1037"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1686,7 +1683,7 @@
     </row>
     <row r="11" spans="1:26" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="97" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="98"/>
       <c r="C11" s="98"/>
@@ -1716,19 +1713,19 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" s="85" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" s="87">
         <v>44559</v>
@@ -1740,10 +1737,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1764,19 +1761,19 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="85" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="85" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13" s="87">
         <v>44559</v>
@@ -1788,10 +1785,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="86" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1812,16 +1809,16 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="85" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="86" t="s">
         <v>6</v>
@@ -1836,10 +1833,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="86" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1860,16 +1857,16 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="85" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="85" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="86" t="s">
         <v>6</v>
@@ -1884,10 +1881,10 @@
         <v>1</v>
       </c>
       <c r="I15" s="86" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1908,19 +1905,19 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="67" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F16" s="69">
         <v>44560</v>
@@ -1932,7 +1929,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1954,16 +1951,16 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" s="67" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="68" t="s">
         <v>8</v>
@@ -1978,7 +1975,7 @@
         <v>8</v>
       </c>
       <c r="I17" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -2000,19 +1997,19 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="67" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F18" s="69">
         <v>44561</v>
@@ -2024,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -2046,16 +2043,16 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="67" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="68" t="s">
         <v>8</v>
@@ -2070,7 +2067,7 @@
         <v>4</v>
       </c>
       <c r="I19" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -2092,19 +2089,19 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F20" s="69">
         <v>44565</v>
@@ -2116,7 +2113,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -2138,19 +2135,19 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="72" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" s="73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F21" s="74">
         <v>44559</v>
@@ -2162,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -2184,16 +2181,16 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="72" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" s="73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="73" t="s">
         <v>6</v>
@@ -2208,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -2230,19 +2227,19 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" s="72" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D23" s="73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F23" s="74">
         <v>44560</v>
@@ -2254,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2276,16 +2273,16 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" s="72" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24" s="73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="73" t="s">
         <v>6</v>
@@ -2300,7 +2297,7 @@
         <v>4</v>
       </c>
       <c r="I24" s="73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2322,19 +2319,19 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B25" s="72" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F25" s="74">
         <v>44564</v>
@@ -2346,7 +2343,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -2368,16 +2365,16 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>8</v>
@@ -2392,7 +2389,7 @@
         <v>4</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -2414,19 +2411,19 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F27" s="21">
         <v>44566</v>
@@ -2438,7 +2435,7 @@
         <v>4</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -2460,19 +2457,19 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" s="21">
         <v>44567</v>
@@ -2484,7 +2481,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -2506,16 +2503,16 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>8</v>
@@ -2530,7 +2527,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -2552,19 +2549,19 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F30" s="21">
         <v>44571</v>
@@ -2576,7 +2573,7 @@
         <v>4</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -2598,19 +2595,19 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="57" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F31" s="59">
         <v>44566</v>
@@ -2622,7 +2619,7 @@
         <v>4</v>
       </c>
       <c r="I31" s="58" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -2644,16 +2641,16 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="57" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32" s="58" t="s">
         <v>6</v>
@@ -2668,7 +2665,7 @@
         <v>4</v>
       </c>
       <c r="I32" s="58" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -2690,19 +2687,19 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="57" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" s="58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F33" s="59">
         <v>44567</v>
@@ -2714,7 +2711,7 @@
         <v>2</v>
       </c>
       <c r="I33" s="58" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -2736,16 +2733,16 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="57" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="58" t="s">
         <v>6</v>
@@ -2760,7 +2757,7 @@
         <v>4</v>
       </c>
       <c r="I34" s="58" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -2782,19 +2779,19 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="60" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" s="58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F35" s="59">
         <v>44571</v>
@@ -2806,7 +2803,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="58" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -2828,19 +2825,19 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F36" s="16">
         <v>44572</v>
@@ -2852,7 +2849,7 @@
         <v>4</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -2874,16 +2871,16 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>8</v>
@@ -2898,7 +2895,7 @@
         <v>4</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -2920,19 +2917,19 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F38" s="16">
         <v>44573</v>
@@ -2944,7 +2941,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -2966,16 +2963,16 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>8</v>
@@ -2990,7 +2987,7 @@
         <v>4</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -3012,19 +3009,19 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F40" s="16">
         <v>44574</v>
@@ -3036,7 +3033,7 @@
         <v>4</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -3058,19 +3055,19 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="62" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D41" s="63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E41" s="63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F41" s="64">
         <v>44572</v>
@@ -3082,7 +3079,7 @@
         <v>2</v>
       </c>
       <c r="I41" s="63" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -3104,16 +3101,16 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="62" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E42" s="63" t="s">
         <v>6</v>
@@ -3128,7 +3125,7 @@
         <v>2</v>
       </c>
       <c r="I42" s="63" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -3150,19 +3147,19 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="62" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D43" s="63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" s="63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F43" s="64">
         <v>44573</v>
@@ -3174,7 +3171,7 @@
         <v>2</v>
       </c>
       <c r="I43" s="63" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -3196,16 +3193,16 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D44" s="63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" s="63" t="s">
         <v>6</v>
@@ -3220,7 +3217,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="63" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -3242,19 +3239,19 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D45" s="63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45" s="63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F45" s="64">
         <v>44574</v>
@@ -3266,7 +3263,7 @@
         <v>2</v>
       </c>
       <c r="I45" s="63" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -3288,19 +3285,19 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="67" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D46" s="68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E46" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F46" s="69">
         <v>44575</v>
@@ -3312,7 +3309,7 @@
         <v>4</v>
       </c>
       <c r="I46" s="68" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -3334,16 +3331,16 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" s="67" t="s">
         <v>20</v>
       </c>
       <c r="C47" s="67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D47" s="68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E47" s="68" t="s">
         <v>8</v>
@@ -3358,7 +3355,7 @@
         <v>2</v>
       </c>
       <c r="I47" s="68" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -3380,19 +3377,19 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="67" t="s">
         <v>20</v>
       </c>
       <c r="C48" s="67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D48" s="68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E48" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F48" s="69">
         <v>44576</v>
@@ -3404,7 +3401,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="68" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -3426,16 +3423,16 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="67" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D49" s="68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E49" s="68" t="s">
         <v>8</v>
@@ -3450,7 +3447,7 @@
         <v>4</v>
       </c>
       <c r="I49" s="68" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -3472,19 +3469,19 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" s="67" t="s">
         <v>20</v>
       </c>
       <c r="C50" s="67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" s="68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E50" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F50" s="69">
         <v>44578</v>
@@ -3496,7 +3493,7 @@
         <v>2</v>
       </c>
       <c r="I50" s="68" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -3518,19 +3515,19 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" s="72" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D51" s="73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E51" s="73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F51" s="74">
         <v>44575</v>
@@ -3542,7 +3539,7 @@
         <v>4</v>
       </c>
       <c r="I51" s="73" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -3564,16 +3561,16 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52" s="72" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D52" s="73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E52" s="73" t="s">
         <v>6</v>
@@ -3588,7 +3585,7 @@
         <v>4</v>
       </c>
       <c r="I52" s="73" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -3610,19 +3607,19 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" s="72" t="s">
         <v>20</v>
       </c>
       <c r="C53" s="72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D53" s="73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E53" s="73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F53" s="74">
         <v>44576</v>
@@ -3634,7 +3631,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="73" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -3656,16 +3653,16 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54" s="72" t="s">
         <v>20</v>
       </c>
       <c r="C54" s="72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D54" s="73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E54" s="73" t="s">
         <v>6</v>
@@ -3680,7 +3677,7 @@
         <v>4</v>
       </c>
       <c r="I54" s="73" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -3702,19 +3699,19 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55" s="72" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D55" s="73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E55" s="73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F55" s="74">
         <v>44578</v>
@@ -3726,7 +3723,7 @@
         <v>4</v>
       </c>
       <c r="I55" s="73" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -3748,16 +3745,16 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B56" s="77" t="s">
         <v>20</v>
       </c>
       <c r="C56" s="77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D56" s="78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E56" s="78" t="s">
         <v>8</v>
@@ -3772,7 +3769,7 @@
         <v>4</v>
       </c>
       <c r="I56" s="78" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -3794,16 +3791,16 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B57" s="77" t="s">
         <v>20</v>
       </c>
       <c r="C57" s="77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D57" s="78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E57" s="78" t="s">
         <v>6</v>
@@ -3818,7 +3815,7 @@
         <v>4</v>
       </c>
       <c r="I57" s="78" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -3840,16 +3837,16 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B58" s="77" t="s">
         <v>20</v>
       </c>
       <c r="C58" s="77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D58" s="78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E58" s="78" t="s">
         <v>6</v>
@@ -3864,7 +3861,7 @@
         <v>2</v>
       </c>
       <c r="I58" s="78" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -3886,16 +3883,16 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" s="77" t="s">
         <v>20</v>
       </c>
       <c r="C59" s="77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D59" s="78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E59" s="78" t="s">
         <v>8</v>
@@ -3910,7 +3907,7 @@
         <v>4</v>
       </c>
       <c r="I59" s="78" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -3932,16 +3929,16 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B60" s="77" t="s">
         <v>20</v>
       </c>
       <c r="C60" s="77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D60" s="78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E60" s="78" t="s">
         <v>6</v>
@@ -3956,7 +3953,7 @@
         <v>4</v>
       </c>
       <c r="I60" s="78" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -3978,7 +3975,7 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4092,7 +4089,7 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B65" s="90"/>
       <c r="C65" s="90"/>
@@ -4122,14 +4119,14 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B66" s="91"/>
       <c r="C66" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D66" s="51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -4156,17 +4153,17 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B67" s="102"/>
       <c r="C67" s="55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D67" s="27">
         <v>2</v>
       </c>
       <c r="E67" s="88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -4192,17 +4189,17 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="101" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B68" s="102"/>
       <c r="C68" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D68" s="27">
         <v>2</v>
       </c>
       <c r="E68" s="88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -4228,11 +4225,11 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B69" s="96"/>
       <c r="C69" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D69" s="27">
         <v>28</v>
@@ -4262,11 +4259,11 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B70" s="82"/>
       <c r="C70" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D70" s="27">
         <v>14</v>
@@ -4296,11 +4293,11 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B71" s="96"/>
       <c r="C71" s="55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D71" s="27">
         <v>18</v>
@@ -4330,11 +4327,11 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B72" s="96"/>
       <c r="C72" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D72" s="27">
         <v>18</v>
@@ -4364,11 +4361,11 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B73" s="96"/>
       <c r="C73" s="55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D73" s="27">
         <v>18</v>
@@ -4398,11 +4395,11 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B74" s="96"/>
       <c r="C74" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D74" s="27">
         <v>10</v>
@@ -4432,11 +4429,11 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B75" s="96"/>
       <c r="C75" s="55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D75" s="27">
         <v>14</v>
@@ -4466,11 +4463,11 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B76" s="96"/>
       <c r="C76" s="55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D76" s="27">
         <v>18</v>
@@ -4500,11 +4497,11 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B77" s="96"/>
       <c r="C77" s="55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D77" s="27">
         <v>18</v>
@@ -4590,13 +4587,13 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B80" s="52" t="s">
+      <c r="C80" s="92" t="s">
         <v>87</v>
-      </c>
-      <c r="C80" s="92" t="s">
-        <v>88</v>
       </c>
       <c r="D80" s="92"/>
       <c r="E80" s="3"/>
@@ -4630,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D81" s="94"/>
       <c r="E81" s="3"/>
@@ -31292,43 +31289,43 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>19</v>
@@ -31336,26 +31333,26 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32394,7 +32391,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -32407,14 +32404,14 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -32437,7 +32434,7 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -32463,11 +32460,11 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -32532,19 +32529,19 @@
     </row>
     <row r="12" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>56</v>
       </c>
       <c r="F12" s="36">
         <v>44368</v>
@@ -32556,24 +32553,24 @@
         <v>6</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="41" t="s">
         <v>58</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>59</v>
       </c>
       <c r="F13" s="42">
         <v>44375</v>
@@ -32585,7 +32582,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -32607,19 +32604,19 @@
     </row>
     <row r="14" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="36">
         <v>44377</v>
@@ -32631,24 +32628,24 @@
         <v>10</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="38" t="s">
         <v>61</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>62</v>
       </c>
       <c r="F15" s="44">
         <v>44370</v>
@@ -32660,24 +32657,24 @@
         <v>9</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>64</v>
-      </c>
       <c r="E16" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="36">
         <v>44372</v>
@@ -32689,24 +32686,24 @@
         <v>10</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="46" t="s">
         <v>65</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>66</v>
       </c>
       <c r="F17" s="36">
         <v>44383</v>
@@ -32718,12 +32715,12 @@
         <v>6</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="98"/>
       <c r="C18" s="98"/>
@@ -32736,19 +32733,19 @@
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="47">
         <v>44397</v>
@@ -32760,24 +32757,24 @@
         <v>10</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="D20" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="48" t="s">
         <v>70</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>71</v>
       </c>
       <c r="F20" s="44">
         <v>44407</v>
@@ -32789,24 +32786,24 @@
         <v>6</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="44">
         <v>44410</v>
@@ -32818,24 +32815,24 @@
         <v>10</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="35" t="s">
         <v>73</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>74</v>
       </c>
       <c r="F22" s="44">
         <v>44415</v>
@@ -32847,24 +32844,24 @@
         <v>6</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="44">
         <v>44418</v>
@@ -32876,24 +32873,24 @@
         <v>10</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="D24" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="35" t="s">
         <v>77</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>78</v>
       </c>
       <c r="F24" s="44">
         <v>44424</v>
@@ -32905,24 +32902,24 @@
         <v>6</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="35" t="s">
         <v>79</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>80</v>
       </c>
       <c r="F25" s="44">
         <v>44427</v>
@@ -32934,12 +32931,12 @@
         <v>10</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -32953,30 +32950,30 @@
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="105"/>
       <c r="C28" s="102"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="102"/>
       <c r="C29" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>34</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="102"/>
       <c r="C30" s="49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="50">
         <v>24</v>
@@ -32984,11 +32981,11 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="102"/>
       <c r="C31" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="26">
         <v>24</v>
@@ -32996,11 +32993,11 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="102"/>
       <c r="C32" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="26">
         <v>20</v>
@@ -33008,11 +33005,11 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="102"/>
       <c r="C33" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="50">
         <v>20</v>
@@ -33020,11 +33017,11 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="102"/>
       <c r="C34" s="49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="50">
         <v>20</v>
@@ -33032,11 +33029,11 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="101" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" s="102"/>
       <c r="C35" s="49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="50">
         <v>20</v>

--- a/Desarrollo/Edutec/Gestión/Sprint 3/Sprint Backlog - S3.xlsx
+++ b/Desarrollo/Edutec/Gestión/Sprint 3/Sprint Backlog - S3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Universidad\Edutec\Desarrollo\Edutec\Gestión\Sprint 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609A3F81-30E3-4B19-AF34-6A68E2C3A58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB553565-4133-4F58-9DB3-0B47D436CF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="141">
   <si>
     <t>Universidad Nacional Mayor de San Marcos</t>
   </si>
@@ -423,9 +423,6 @@
     <t>Tarea 4 (T02-T4)</t>
   </si>
   <si>
-    <t>Iniciado</t>
-  </si>
-  <si>
     <t>Tarea 5 (T02-T5)</t>
   </si>
   <si>
@@ -448,6 +445,21 @@
   </si>
   <si>
     <t>HU pendiente del Sprint 3</t>
+  </si>
+  <si>
+    <t>Tarea 1 (A07-T1)</t>
+  </si>
+  <si>
+    <t>Tarea 2 (A07-T2)</t>
+  </si>
+  <si>
+    <t>Tarea 3 (A07-T3)</t>
+  </si>
+  <si>
+    <t>Tarea 4 (A07-T4)</t>
+  </si>
+  <si>
+    <t>Tarea 5 (A07-T5)</t>
   </si>
 </sst>
 </file>
@@ -1348,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1037"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:B76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1725,13 +1737,13 @@
         <v>24</v>
       </c>
       <c r="E12" s="86" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" s="87">
+        <v>44558</v>
+      </c>
+      <c r="G12" s="87">
         <v>44559</v>
-      </c>
-      <c r="G12" s="87">
-        <v>44560</v>
       </c>
       <c r="H12" s="85">
         <v>1</v>
@@ -1740,7 +1752,7 @@
         <v>56</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1767,19 +1779,19 @@
         <v>20</v>
       </c>
       <c r="C13" s="85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="86" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="86" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F13" s="87">
+        <v>44558</v>
+      </c>
+      <c r="G13" s="87">
         <v>44559</v>
-      </c>
-      <c r="G13" s="87">
-        <v>44560</v>
       </c>
       <c r="H13" s="85">
         <v>1</v>
@@ -1788,7 +1800,7 @@
         <v>56</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1809,7 +1821,7 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="85" t="s">
         <v>20</v>
@@ -1836,7 +1848,7 @@
         <v>56</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1857,13 +1869,13 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="85" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="86" t="s">
         <v>25</v>
@@ -1884,7 +1896,7 @@
         <v>56</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2527,7 +2539,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -2573,7 +2585,7 @@
         <v>4</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -2757,7 +2769,7 @@
         <v>4</v>
       </c>
       <c r="I34" s="58" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -2803,7 +2815,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="58" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -2987,7 +2999,7 @@
         <v>4</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -3033,7 +3045,7 @@
         <v>4</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -3217,7 +3229,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="63" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -3263,7 +3275,7 @@
         <v>2</v>
       </c>
       <c r="I45" s="63" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -3447,7 +3459,7 @@
         <v>4</v>
       </c>
       <c r="I49" s="68" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -3493,7 +3505,7 @@
         <v>2</v>
       </c>
       <c r="I50" s="68" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -3677,7 +3689,7 @@
         <v>4</v>
       </c>
       <c r="I54" s="73" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -3723,7 +3735,7 @@
         <v>4</v>
       </c>
       <c r="I55" s="73" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -3745,13 +3757,13 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B56" s="77" t="s">
         <v>20</v>
       </c>
       <c r="C56" s="77" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D56" s="78" t="s">
         <v>21</v>
@@ -3791,13 +3803,13 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B57" s="77" t="s">
         <v>20</v>
       </c>
       <c r="C57" s="77" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D57" s="78" t="s">
         <v>22</v>
@@ -3837,13 +3849,13 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B58" s="77" t="s">
         <v>20</v>
       </c>
       <c r="C58" s="77" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D58" s="78" t="s">
         <v>23</v>
@@ -3883,13 +3895,13 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B59" s="77" t="s">
         <v>20</v>
       </c>
       <c r="C59" s="77" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D59" s="78" t="s">
         <v>24</v>
@@ -3907,7 +3919,7 @@
         <v>4</v>
       </c>
       <c r="I59" s="78" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -3929,13 +3941,13 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B60" s="77" t="s">
         <v>20</v>
       </c>
       <c r="C60" s="77" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D60" s="78" t="s">
         <v>25</v>
@@ -3953,7 +3965,7 @@
         <v>4</v>
       </c>
       <c r="I60" s="78" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -4153,7 +4165,7 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B67" s="102"/>
       <c r="C67" s="55" t="s">
@@ -4163,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="88" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -4189,17 +4201,17 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B68" s="102"/>
       <c r="C68" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D68" s="27">
         <v>2</v>
       </c>
       <c r="E68" s="88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>

--- a/Desarrollo/Edutec/Gestión/Sprint 3/Sprint Backlog - S3.xlsx
+++ b/Desarrollo/Edutec/Gestión/Sprint 3/Sprint Backlog - S3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Universidad\Edutec\Desarrollo\Edutec\Gestión\Sprint 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB553565-4133-4F58-9DB3-0B47D436CF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8DD232-4EC7-4C50-9868-5E895E970669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="134">
   <si>
     <t>Universidad Nacional Mayor de San Marcos</t>
   </si>
@@ -351,9 +351,6 @@
     <t>A06</t>
   </si>
   <si>
-    <t>A07</t>
-  </si>
-  <si>
     <t>Tarea 1 (A05-T1)</t>
   </si>
   <si>
@@ -394,9 +391,6 @@
   </si>
   <si>
     <t>Modificar institución</t>
-  </si>
-  <si>
-    <t>Visualizar reportes</t>
   </si>
   <si>
     <t>Leyla Campos</t>
@@ -445,21 +439,6 @@
   </si>
   <si>
     <t>HU pendiente del Sprint 3</t>
-  </si>
-  <si>
-    <t>Tarea 1 (A07-T1)</t>
-  </si>
-  <si>
-    <t>Tarea 2 (A07-T2)</t>
-  </si>
-  <si>
-    <t>Tarea 3 (A07-T3)</t>
-  </si>
-  <si>
-    <t>Tarea 4 (A07-T4)</t>
-  </si>
-  <si>
-    <t>Tarea 5 (A07-T5)</t>
   </si>
 </sst>
 </file>
@@ -526,7 +505,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,12 +563,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
@@ -860,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1075,6 +1048,11 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1085,26 +1063,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1358,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1037"/>
+  <dimension ref="A1:Z1031"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1694,17 +1652,17 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="99"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="94"/>
       <c r="J11" s="3"/>
       <c r="K11" s="12"/>
       <c r="L11" s="3"/>
@@ -1724,35 +1682,35 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="85" t="s">
+      <c r="A12" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="85" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="86" t="s">
+      <c r="C12" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="87">
+      <c r="E12" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="82">
         <v>44558</v>
       </c>
-      <c r="G12" s="87">
+      <c r="G12" s="82">
         <v>44559</v>
       </c>
-      <c r="H12" s="85">
+      <c r="H12" s="80">
         <v>1</v>
       </c>
-      <c r="I12" s="86" t="s">
+      <c r="I12" s="81" t="s">
         <v>56</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1772,35 +1730,35 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="85" t="s">
+      <c r="D13" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="87">
+      <c r="F13" s="82">
         <v>44558</v>
       </c>
-      <c r="G13" s="87">
+      <c r="G13" s="82">
         <v>44559</v>
       </c>
-      <c r="H13" s="85">
+      <c r="H13" s="80">
         <v>1</v>
       </c>
-      <c r="I13" s="86" t="s">
+      <c r="I13" s="81" t="s">
         <v>56</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1820,35 +1778,35 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="82">
+        <v>44559</v>
+      </c>
+      <c r="G14" s="82">
+        <v>44560</v>
+      </c>
+      <c r="H14" s="80">
+        <v>1</v>
+      </c>
+      <c r="I14" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="B14" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="85" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="87">
-        <v>44559</v>
-      </c>
-      <c r="G14" s="87">
-        <v>44560</v>
-      </c>
-      <c r="H14" s="85">
-        <v>1</v>
-      </c>
-      <c r="I14" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1868,35 +1826,35 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="82">
+        <v>44559</v>
+      </c>
+      <c r="G15" s="82">
+        <v>44560</v>
+      </c>
+      <c r="H15" s="80">
+        <v>1</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="85" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="87">
-        <v>44559</v>
-      </c>
-      <c r="G15" s="87">
-        <v>44560</v>
-      </c>
-      <c r="H15" s="85">
-        <v>1</v>
-      </c>
-      <c r="I15" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1917,19 +1875,19 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="66" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B16" s="67" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="68" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F16" s="69">
         <v>44560</v>
@@ -1963,7 +1921,7 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="66" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B17" s="67" t="s">
         <v>20</v>
@@ -2009,7 +1967,7 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="66" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B18" s="67" t="s">
         <v>20</v>
@@ -2021,7 +1979,7 @@
         <v>23</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F18" s="69">
         <v>44561</v>
@@ -2055,13 +2013,13 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="66" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" s="67" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="68" t="s">
         <v>24</v>
@@ -2101,19 +2059,19 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="66" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" s="68" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F20" s="69">
         <v>44565</v>
@@ -2147,19 +2105,19 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B21" s="72" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" s="73" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F21" s="74">
         <v>44559</v>
@@ -2193,13 +2151,13 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B22" s="72" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" s="73" t="s">
         <v>22</v>
@@ -2239,19 +2197,19 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B23" s="72" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="73" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F23" s="74">
         <v>44560</v>
@@ -2285,13 +2243,13 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B24" s="72" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" s="73" t="s">
         <v>24</v>
@@ -2331,19 +2289,19 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B25" s="72" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" s="73" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F25" s="74">
         <v>44564</v>
@@ -2435,7 +2393,7 @@
         <v>22</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F27" s="21">
         <v>44566</v>
@@ -2481,7 +2439,7 @@
         <v>23</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F28" s="21">
         <v>44567</v>
@@ -2573,7 +2531,7 @@
         <v>25</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F30" s="21">
         <v>44571</v>
@@ -2619,7 +2577,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F31" s="59">
         <v>44566</v>
@@ -2711,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="E33" s="58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F33" s="59">
         <v>44567</v>
@@ -2803,7 +2761,7 @@
         <v>25</v>
       </c>
       <c r="E35" s="58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F35" s="59">
         <v>44571</v>
@@ -2849,7 +2807,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F36" s="16">
         <v>44572</v>
@@ -2941,7 +2899,7 @@
         <v>23</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F38" s="16">
         <v>44573</v>
@@ -3033,7 +2991,7 @@
         <v>25</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F40" s="16">
         <v>44574</v>
@@ -3079,7 +3037,7 @@
         <v>21</v>
       </c>
       <c r="E41" s="63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F41" s="64">
         <v>44572</v>
@@ -3171,7 +3129,7 @@
         <v>23</v>
       </c>
       <c r="E43" s="63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F43" s="64">
         <v>44573</v>
@@ -3263,7 +3221,7 @@
         <v>25</v>
       </c>
       <c r="E45" s="63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F45" s="64">
         <v>44574</v>
@@ -3303,13 +3261,13 @@
         <v>20</v>
       </c>
       <c r="C46" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D46" s="68" t="s">
         <v>21</v>
       </c>
       <c r="E46" s="68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F46" s="69">
         <v>44575</v>
@@ -3401,7 +3359,7 @@
         <v>23</v>
       </c>
       <c r="E48" s="68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F48" s="69">
         <v>44576</v>
@@ -3441,7 +3399,7 @@
         <v>20</v>
       </c>
       <c r="C49" s="67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D49" s="68" t="s">
         <v>24</v>
@@ -3487,13 +3445,13 @@
         <v>20</v>
       </c>
       <c r="C50" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D50" s="68" t="s">
         <v>25</v>
       </c>
       <c r="E50" s="68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F50" s="69">
         <v>44578</v>
@@ -3533,13 +3491,13 @@
         <v>20</v>
       </c>
       <c r="C51" s="72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D51" s="73" t="s">
         <v>21</v>
       </c>
       <c r="E51" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F51" s="74">
         <v>44575</v>
@@ -3579,7 +3537,7 @@
         <v>20</v>
       </c>
       <c r="C52" s="72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D52" s="73" t="s">
         <v>22</v>
@@ -3625,13 +3583,13 @@
         <v>20</v>
       </c>
       <c r="C53" s="72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D53" s="73" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F53" s="74">
         <v>44576</v>
@@ -3671,7 +3629,7 @@
         <v>20</v>
       </c>
       <c r="C54" s="72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D54" s="73" t="s">
         <v>24</v>
@@ -3717,13 +3675,13 @@
         <v>20</v>
       </c>
       <c r="C55" s="72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D55" s="73" t="s">
         <v>25</v>
       </c>
       <c r="E55" s="73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F55" s="74">
         <v>44578</v>
@@ -3756,33 +3714,17 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="D56" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="79">
-        <v>44572</v>
-      </c>
-      <c r="G56" s="79">
-        <v>44573</v>
-      </c>
-      <c r="H56" s="77">
-        <v>4</v>
-      </c>
-      <c r="I56" s="78" t="s">
-        <v>56</v>
-      </c>
+      <c r="A56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -3801,34 +3743,16 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="D57" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="79">
-        <v>44572</v>
-      </c>
-      <c r="G57" s="79">
-        <v>44573</v>
-      </c>
-      <c r="H57" s="77">
-        <v>4</v>
-      </c>
-      <c r="I57" s="78" t="s">
-        <v>56</v>
-      </c>
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3847,34 +3771,16 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="79">
-        <v>44573</v>
-      </c>
-      <c r="G58" s="79">
-        <v>44574</v>
-      </c>
-      <c r="H58" s="77">
-        <v>2</v>
-      </c>
-      <c r="I58" s="78" t="s">
-        <v>56</v>
-      </c>
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -3893,34 +3799,16 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="79">
-        <v>44573</v>
-      </c>
-      <c r="G59" s="79">
-        <v>44574</v>
-      </c>
-      <c r="H59" s="77">
-        <v>4</v>
-      </c>
-      <c r="I59" s="78" t="s">
-        <v>56</v>
-      </c>
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3939,34 +3827,18 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="B60" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="D60" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="79">
-        <v>44574</v>
-      </c>
-      <c r="G60" s="79">
-        <v>44575</v>
-      </c>
-      <c r="H60" s="80">
-        <v>4</v>
-      </c>
-      <c r="I60" s="78" t="s">
-        <v>56</v>
-      </c>
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3985,18 +3857,22 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="86"/>
+      <c r="C61" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -4016,11 +3892,19 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="A62" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="97"/>
+      <c r="C62" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="27">
+        <v>2</v>
+      </c>
+      <c r="E62" s="83" t="s">
+        <v>132</v>
+      </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -4044,11 +3928,19 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+      <c r="A63" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="97"/>
+      <c r="C63" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="27">
+        <v>2</v>
+      </c>
+      <c r="E63" s="83" t="s">
+        <v>133</v>
+      </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -4072,11 +3964,17 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="A64" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="91"/>
+      <c r="C64" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="27">
+        <v>28</v>
+      </c>
+      <c r="E64" s="78"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -4100,13 +3998,17 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65" s="90"/>
-      <c r="C65" s="90"/>
-      <c r="D65" s="91"/>
-      <c r="E65" s="3"/>
+      <c r="A65" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="77"/>
+      <c r="C65" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="27">
+        <v>14</v>
+      </c>
+      <c r="E65" s="78"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -4130,17 +4032,17 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="100" t="s">
-        <v>32</v>
+      <c r="A66" s="90" t="s">
+        <v>112</v>
       </c>
       <c r="B66" s="91"/>
-      <c r="C66" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66" s="3"/>
+      <c r="C66" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="27">
+        <v>18</v>
+      </c>
+      <c r="E66" s="78"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -4164,19 +4066,17 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="102"/>
+      <c r="A67" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="91"/>
       <c r="C67" s="55" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="D67" s="27">
-        <v>2</v>
-      </c>
-      <c r="E67" s="88" t="s">
-        <v>134</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E67" s="78"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -4200,19 +4100,17 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68" s="102"/>
+      <c r="A68" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="91"/>
       <c r="C68" s="55" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="D68" s="27">
-        <v>2</v>
-      </c>
-      <c r="E68" s="88" t="s">
-        <v>135</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E68" s="78"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -4236,17 +4134,17 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="95" t="s">
-        <v>124</v>
-      </c>
-      <c r="B69" s="96"/>
+      <c r="A69" s="90" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="91"/>
       <c r="C69" s="55" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="D69" s="27">
-        <v>28</v>
-      </c>
-      <c r="E69" s="83"/>
+        <v>10</v>
+      </c>
+      <c r="E69" s="78"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -4270,17 +4168,17 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" s="82"/>
+      <c r="A70" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="91"/>
       <c r="C70" s="55" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="D70" s="27">
         <v>14</v>
       </c>
-      <c r="E70" s="83"/>
+      <c r="E70" s="78"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -4304,17 +4202,17 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="95" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" s="96"/>
+      <c r="A71" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="91"/>
       <c r="C71" s="55" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="D71" s="27">
         <v>18</v>
       </c>
-      <c r="E71" s="83"/>
+      <c r="E71" s="78"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -4338,17 +4236,11 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="B72" s="96"/>
-      <c r="C72" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D72" s="27">
-        <v>18</v>
-      </c>
-      <c r="E72" s="83"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -4372,17 +4264,11 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="95" t="s">
-        <v>115</v>
-      </c>
-      <c r="B73" s="96"/>
-      <c r="C73" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="D73" s="27">
-        <v>18</v>
-      </c>
-      <c r="E73" s="83"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -4406,17 +4292,17 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="B74" s="96"/>
-      <c r="C74" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="D74" s="27">
-        <v>10</v>
-      </c>
-      <c r="E74" s="83"/>
+      <c r="A74" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" s="87"/>
+      <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -4440,17 +4326,17 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="B75" s="96"/>
-      <c r="C75" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="D75" s="27">
-        <v>14</v>
-      </c>
-      <c r="E75" s="83"/>
+      <c r="A75" s="53">
+        <v>44558</v>
+      </c>
+      <c r="B75" s="54">
+        <v>1</v>
+      </c>
+      <c r="C75" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="89"/>
+      <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -4474,17 +4360,11 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="B76" s="96"/>
-      <c r="C76" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" s="27">
-        <v>18</v>
-      </c>
-      <c r="E76" s="83"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -4508,17 +4388,11 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="B77" s="96"/>
-      <c r="C77" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="D77" s="27">
-        <v>18</v>
-      </c>
-      <c r="E77" s="83"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -4598,16 +4472,10 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="D80" s="92"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -4632,16 +4500,10 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="53">
-        <v>44558</v>
-      </c>
-      <c r="B81" s="54">
-        <v>1</v>
-      </c>
-      <c r="C81" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="D81" s="94"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -30985,7 +30847,7 @@
       <c r="Y1021" s="3"/>
       <c r="Z1021" s="3"/>
     </row>
-    <row r="1022" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1022" s="3"/>
       <c r="B1022" s="3"/>
       <c r="C1022" s="3"/>
@@ -30995,25 +30857,8 @@
       <c r="G1022" s="3"/>
       <c r="H1022" s="3"/>
       <c r="I1022" s="3"/>
-      <c r="J1022" s="3"/>
-      <c r="K1022" s="3"/>
-      <c r="L1022" s="3"/>
-      <c r="M1022" s="3"/>
-      <c r="N1022" s="3"/>
-      <c r="O1022" s="3"/>
-      <c r="P1022" s="3"/>
-      <c r="Q1022" s="3"/>
-      <c r="R1022" s="3"/>
-      <c r="S1022" s="3"/>
-      <c r="T1022" s="3"/>
-      <c r="U1022" s="3"/>
-      <c r="V1022" s="3"/>
-      <c r="W1022" s="3"/>
-      <c r="X1022" s="3"/>
-      <c r="Y1022" s="3"/>
-      <c r="Z1022" s="3"/>
-    </row>
-    <row r="1023" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1023" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1023" s="3"/>
       <c r="B1023" s="3"/>
       <c r="C1023" s="3"/>
@@ -31023,25 +30868,8 @@
       <c r="G1023" s="3"/>
       <c r="H1023" s="3"/>
       <c r="I1023" s="3"/>
-      <c r="J1023" s="3"/>
-      <c r="K1023" s="3"/>
-      <c r="L1023" s="3"/>
-      <c r="M1023" s="3"/>
-      <c r="N1023" s="3"/>
-      <c r="O1023" s="3"/>
-      <c r="P1023" s="3"/>
-      <c r="Q1023" s="3"/>
-      <c r="R1023" s="3"/>
-      <c r="S1023" s="3"/>
-      <c r="T1023" s="3"/>
-      <c r="U1023" s="3"/>
-      <c r="V1023" s="3"/>
-      <c r="W1023" s="3"/>
-      <c r="X1023" s="3"/>
-      <c r="Y1023" s="3"/>
-      <c r="Z1023" s="3"/>
-    </row>
-    <row r="1024" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1024" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1024" s="3"/>
       <c r="B1024" s="3"/>
       <c r="C1024" s="3"/>
@@ -31051,25 +30879,8 @@
       <c r="G1024" s="3"/>
       <c r="H1024" s="3"/>
       <c r="I1024" s="3"/>
-      <c r="J1024" s="3"/>
-      <c r="K1024" s="3"/>
-      <c r="L1024" s="3"/>
-      <c r="M1024" s="3"/>
-      <c r="N1024" s="3"/>
-      <c r="O1024" s="3"/>
-      <c r="P1024" s="3"/>
-      <c r="Q1024" s="3"/>
-      <c r="R1024" s="3"/>
-      <c r="S1024" s="3"/>
-      <c r="T1024" s="3"/>
-      <c r="U1024" s="3"/>
-      <c r="V1024" s="3"/>
-      <c r="W1024" s="3"/>
-      <c r="X1024" s="3"/>
-      <c r="Y1024" s="3"/>
-      <c r="Z1024" s="3"/>
-    </row>
-    <row r="1025" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1025" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1025" s="3"/>
       <c r="B1025" s="3"/>
       <c r="C1025" s="3"/>
@@ -31079,25 +30890,8 @@
       <c r="G1025" s="3"/>
       <c r="H1025" s="3"/>
       <c r="I1025" s="3"/>
-      <c r="J1025" s="3"/>
-      <c r="K1025" s="3"/>
-      <c r="L1025" s="3"/>
-      <c r="M1025" s="3"/>
-      <c r="N1025" s="3"/>
-      <c r="O1025" s="3"/>
-      <c r="P1025" s="3"/>
-      <c r="Q1025" s="3"/>
-      <c r="R1025" s="3"/>
-      <c r="S1025" s="3"/>
-      <c r="T1025" s="3"/>
-      <c r="U1025" s="3"/>
-      <c r="V1025" s="3"/>
-      <c r="W1025" s="3"/>
-      <c r="X1025" s="3"/>
-      <c r="Y1025" s="3"/>
-      <c r="Z1025" s="3"/>
-    </row>
-    <row r="1026" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1026" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1026" s="3"/>
       <c r="B1026" s="3"/>
       <c r="C1026" s="3"/>
@@ -31107,25 +30901,8 @@
       <c r="G1026" s="3"/>
       <c r="H1026" s="3"/>
       <c r="I1026" s="3"/>
-      <c r="J1026" s="3"/>
-      <c r="K1026" s="3"/>
-      <c r="L1026" s="3"/>
-      <c r="M1026" s="3"/>
-      <c r="N1026" s="3"/>
-      <c r="O1026" s="3"/>
-      <c r="P1026" s="3"/>
-      <c r="Q1026" s="3"/>
-      <c r="R1026" s="3"/>
-      <c r="S1026" s="3"/>
-      <c r="T1026" s="3"/>
-      <c r="U1026" s="3"/>
-      <c r="V1026" s="3"/>
-      <c r="W1026" s="3"/>
-      <c r="X1026" s="3"/>
-      <c r="Y1026" s="3"/>
-      <c r="Z1026" s="3"/>
-    </row>
-    <row r="1027" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1027" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1027" s="3"/>
       <c r="B1027" s="3"/>
       <c r="C1027" s="3"/>
@@ -31135,25 +30912,8 @@
       <c r="G1027" s="3"/>
       <c r="H1027" s="3"/>
       <c r="I1027" s="3"/>
-      <c r="J1027" s="3"/>
-      <c r="K1027" s="3"/>
-      <c r="L1027" s="3"/>
-      <c r="M1027" s="3"/>
-      <c r="N1027" s="3"/>
-      <c r="O1027" s="3"/>
-      <c r="P1027" s="3"/>
-      <c r="Q1027" s="3"/>
-      <c r="R1027" s="3"/>
-      <c r="S1027" s="3"/>
-      <c r="T1027" s="3"/>
-      <c r="U1027" s="3"/>
-      <c r="V1027" s="3"/>
-      <c r="W1027" s="3"/>
-      <c r="X1027" s="3"/>
-      <c r="Y1027" s="3"/>
-      <c r="Z1027" s="3"/>
-    </row>
-    <row r="1028" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1028" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1028" s="3"/>
       <c r="B1028" s="3"/>
       <c r="C1028" s="3"/>
@@ -31164,7 +30924,7 @@
       <c r="H1028" s="3"/>
       <c r="I1028" s="3"/>
     </row>
-    <row r="1029" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1029" s="3"/>
       <c r="B1029" s="3"/>
       <c r="C1029" s="3"/>
@@ -31175,7 +30935,7 @@
       <c r="H1029" s="3"/>
       <c r="I1029" s="3"/>
     </row>
-    <row r="1030" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1030" s="3"/>
       <c r="B1030" s="3"/>
       <c r="C1030" s="3"/>
@@ -31186,7 +30946,7 @@
       <c r="H1030" s="3"/>
       <c r="I1030" s="3"/>
     </row>
-    <row r="1031" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1031" s="3"/>
       <c r="B1031" s="3"/>
       <c r="C1031" s="3"/>
@@ -31197,89 +30957,22 @@
       <c r="H1031" s="3"/>
       <c r="I1031" s="3"/>
     </row>
-    <row r="1032" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1032" s="3"/>
-      <c r="B1032" s="3"/>
-      <c r="C1032" s="3"/>
-      <c r="D1032" s="3"/>
-      <c r="E1032" s="3"/>
-      <c r="F1032" s="3"/>
-      <c r="G1032" s="3"/>
-      <c r="H1032" s="3"/>
-      <c r="I1032" s="3"/>
-    </row>
-    <row r="1033" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1033" s="3"/>
-      <c r="B1033" s="3"/>
-      <c r="C1033" s="3"/>
-      <c r="D1033" s="3"/>
-      <c r="E1033" s="3"/>
-      <c r="F1033" s="3"/>
-      <c r="G1033" s="3"/>
-      <c r="H1033" s="3"/>
-      <c r="I1033" s="3"/>
-    </row>
-    <row r="1034" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1034" s="3"/>
-      <c r="B1034" s="3"/>
-      <c r="C1034" s="3"/>
-      <c r="D1034" s="3"/>
-      <c r="E1034" s="3"/>
-      <c r="F1034" s="3"/>
-      <c r="G1034" s="3"/>
-      <c r="H1034" s="3"/>
-      <c r="I1034" s="3"/>
-    </row>
-    <row r="1035" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1035" s="3"/>
-      <c r="B1035" s="3"/>
-      <c r="C1035" s="3"/>
-      <c r="D1035" s="3"/>
-      <c r="E1035" s="3"/>
-      <c r="F1035" s="3"/>
-      <c r="G1035" s="3"/>
-      <c r="H1035" s="3"/>
-      <c r="I1035" s="3"/>
-    </row>
-    <row r="1036" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1036" s="3"/>
-      <c r="B1036" s="3"/>
-      <c r="C1036" s="3"/>
-      <c r="D1036" s="3"/>
-      <c r="E1036" s="3"/>
-      <c r="F1036" s="3"/>
-      <c r="G1036" s="3"/>
-      <c r="H1036" s="3"/>
-      <c r="I1036" s="3"/>
-    </row>
-    <row r="1037" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1037" s="3"/>
-      <c r="B1037" s="3"/>
-      <c r="C1037" s="3"/>
-      <c r="D1037" s="3"/>
-      <c r="E1037" s="3"/>
-      <c r="F1037" s="3"/>
-      <c r="G1037" s="3"/>
-      <c r="H1037" s="3"/>
-      <c r="I1037" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A72:B72"/>
+  <mergeCells count="14">
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="A67:B67"/>
     <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
     <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A63:B63"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -32526,17 +32219,17 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="99"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="94"/>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32731,17 +32424,17 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="99"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="94"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
@@ -32961,17 +32654,17 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="105"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="97"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="102"/>
+      <c r="B29" s="97"/>
       <c r="C29" s="25" t="s">
         <v>33</v>
       </c>
@@ -32980,10 +32673,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="101" t="s">
+      <c r="A30" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="102"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="49" t="s">
         <v>26</v>
       </c>
@@ -32992,10 +32685,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="102"/>
+      <c r="B31" s="97"/>
       <c r="C31" s="49" t="s">
         <v>37</v>
       </c>
@@ -33004,10 +32697,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="101" t="s">
+      <c r="A32" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="102"/>
+      <c r="B32" s="97"/>
       <c r="C32" s="49" t="s">
         <v>47</v>
       </c>
@@ -33016,10 +32709,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="102"/>
+      <c r="B33" s="97"/>
       <c r="C33" s="49" t="s">
         <v>43</v>
       </c>
@@ -33028,10 +32721,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="102"/>
+      <c r="B34" s="97"/>
       <c r="C34" s="49" t="s">
         <v>45</v>
       </c>
@@ -33040,10 +32733,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="101" t="s">
+      <c r="A35" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="102"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="49" t="s">
         <v>40</v>
       </c>
